--- a/DependanceFonctionelle.xlsx
+++ b/DependanceFonctionelle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>Lieu</t>
-  </si>
-  <si>
-    <t>Oo</t>
-  </si>
-  <si>
-    <t>Oa</t>
-  </si>
-  <si>
-    <t>Of</t>
   </si>
   <si>
     <t>Quantité</t>
@@ -456,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324D02-2872-423C-A7B9-9EE9E5E7A0F9}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +458,7 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -502,58 +493,49 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -561,178 +543,127 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
       <c r="P16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
       <c r="Q17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="T20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
